--- a/vorlaeufige_energiebilanz_oesterreich_2016_in_terajoule.xlsx
+++ b/vorlaeufige_energiebilanz_oesterreich_2016_in_terajoule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Schule\HTL\5bi\Medt\Datenbereitstellung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Schule\HTL\5bi\Medt\Datenbereitstellung\Datenbereitstellung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Steinkohle</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>Bilanzaggregate \ Energieträger</t>
+  </si>
+  <si>
+    <t>https://www.e-control.at/konsumenten/strom/strompreis/was-kostet-eine-kwh/-/asset_publisher/AGb0fFV4c3Hl/content/was-kostet-eine-kwh-strom-?inheritRedirect=false&amp;redirect=https%3A%2F%2Fwww.e-control.at%2Fkonsumenten%2Fstrom%2Fstrompreis%2Fwas-kostet-eine-kwh%3Fp_p_id%3D101_INSTANCE_AGb0fFV4c3Hl%26p_p_lifecycle%3D0%26p_p_state%3Dnormal%26p_p_mode%3Dview%26p_p_col_id%3Dcolumn-1%26p_p_col_pos%3D1%26p_p_col_count%3D2</t>
+  </si>
+  <si>
+    <t>http://www.ier.uni-stuttgart.de/publikationen/arbeitsberichte/downloads/Arbeitsbericht_04.pdf</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -598,6 +604,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -613,7 +621,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -967,9 +974,9 @@
   </sheetPr>
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -981,41 +988,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1759,7 +1766,7 @@
         <f t="shared" si="5"/>
         <v>1425316.10460698</v>
       </c>
-      <c r="AI8" s="28"/>
+      <c r="AI8" s="23"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1867,6 +1874,7 @@
         <f t="shared" si="5"/>
         <v>865025.93038918811</v>
       </c>
+      <c r="AH9" s="24"/>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -2939,47 +2947,55 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="29"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="24" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
